--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
   <si>
     <t>模型ID</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Assets/Datas/Objects/Roles/Test/X_Bot.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/archer.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/shield.prefab</t>
   </si>
   <si>
     <t>小野猪</t>
@@ -368,19 +374,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,7 +549,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,12 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,46 +860,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,103 +914,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,19 +1015,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1366,7 @@
   <dimension ref="A1:Y414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1470,12 +1463,24 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="5:7">
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5694,17 +5699,20 @@
   <autoFilter ref="A4:G53">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A360:A364">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A369:A1048576 A1:A110 A112:A359">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="A369:A1048576 A1:A7 A9:A110 A112:A359">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A365 A367">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A366 A368">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5729,22 +5737,22 @@
         <v>2001</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1">
         <v>2.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5752,22 +5760,22 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2.5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5775,19 +5783,19 @@
         <v>2003</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -5795,22 +5803,22 @@
         <v>2004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5836,20 +5844,20 @@
         <v>2005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5875,20 +5883,20 @@
         <v>2006</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5914,20 +5922,20 @@
         <v>2007</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5953,20 +5961,20 @@
         <v>2008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5992,22 +6000,22 @@
         <v>2009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -6033,20 +6041,20 @@
         <v>2010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -6072,20 +6080,20 @@
         <v>2011</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -6111,20 +6119,20 @@
         <v>2012</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6150,22 +6158,22 @@
         <v>2013</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>2.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6191,22 +6199,22 @@
         <v>2014</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>2.5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6232,22 +6240,22 @@
         <v>2015</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>2.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -6273,22 +6281,22 @@
         <v>2016</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -6314,19 +6322,19 @@
         <v>2020</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6352,19 +6360,19 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6390,22 +6398,22 @@
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>2.5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -6431,22 +6439,22 @@
         <v>2031</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>2.5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6472,22 +6480,22 @@
         <v>2032</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>2.5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6513,22 +6521,22 @@
         <v>2033</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>2.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6554,22 +6562,22 @@
         <v>2041</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6595,22 +6603,22 @@
         <v>2042</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>2.5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6636,22 +6644,22 @@
         <v>2051</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>2.5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6677,22 +6685,22 @@
         <v>2052</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>2.5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6718,22 +6726,22 @@
         <v>2061</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6759,22 +6767,22 @@
         <v>2062</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>2.5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6800,22 +6808,22 @@
         <v>2071</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>2.5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6841,22 +6849,22 @@
         <v>2072</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6882,22 +6890,22 @@
         <v>2101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>2.5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6923,22 +6931,22 @@
         <v>2102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>2.5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6964,22 +6972,22 @@
         <v>2103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>2.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -7005,22 +7013,22 @@
         <v>2104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>2.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -7046,22 +7054,22 @@
         <v>2105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>2.5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -7087,22 +7095,22 @@
         <v>2815</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1">
         <v>2.5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -7128,20 +7136,20 @@
         <v>2816</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -7167,22 +7175,22 @@
         <v>2901</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1">
         <v>5.5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -7208,20 +7216,20 @@
         <v>2990</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -7247,22 +7255,22 @@
         <v>2991</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1">
         <v>2.5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -7288,22 +7296,22 @@
         <v>2992</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1">
         <v>2.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>

--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -4,16 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
   <si>
     <t>模型ID</t>
   </si>
@@ -114,10 +127,58 @@
     <t>Assets/Datas/Objects/Roles/Test/X_Bot.prefab</t>
   </si>
   <si>
-    <t>Assets/Datas/Objects/Soliders/archer.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Objects/Soliders/shield.prefab</t>
+    <t>Assets/Datas/Objects/Soliders/easteregg_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/easteregg_giant_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/easteregg_shield_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/elf_giant_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/elf_pilot_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/elf_royal_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/elf_shield_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/fire_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/flame_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/flame_shield_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/human_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/human_giant_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/human_pilot_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/human_royal_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/undead_pilot_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/undead_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/elf_archer_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Soliders/human_shield_0.prefab</t>
   </si>
   <si>
     <t>小野猪</t>
@@ -372,12 +433,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -394,34 +455,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -435,14 +468,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +507,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,7 +572,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,55 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,31 +649,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +685,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,7 +709,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +793,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,21 +816,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -802,6 +848,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,148 +924,148 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,55 +1094,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释 2" xfId="49"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="1">
@@ -1363,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y414"/>
+  <dimension ref="A1:Y412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1465,7 +1526,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2016</v>
+        <v>2032</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1476,7 +1537,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1485,96 +1546,188 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2033</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2043</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2001</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>2051</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2007</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2058</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="5:8">
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
+      <c r="A24">
+        <v>2016</v>
+      </c>
       <c r="B24" s="1"/>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1586,16 +1739,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+    <row r="26" spans="5:7">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+    <row r="27" ht="14.25" customHeight="1" spans="5:7">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1605,7 +1754,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="5:7">
+    <row r="29" spans="4:7">
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1615,8 +1765,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="1"/>
+    <row r="31" spans="5:7">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1656,12 +1805,14 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="5:7">
+    <row r="39" spans="4:7">
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="5:7">
+    <row r="40" spans="4:7">
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1708,17 +1859,54 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="4:7">
-      <c r="D48" s="1"/>
+    <row r="48" spans="2:25">
+      <c r="B48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="4:7">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="2:25">
       <c r="B50" s="1"/>
@@ -1746,7 +1934,6 @@
     </row>
     <row r="51" spans="2:25">
       <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1793,79 +1980,83 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="2:25">
-      <c r="B53" s="1"/>
+    <row r="53" spans="4:7">
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="2:25">
-      <c r="B54" s="1"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="4:7">
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="4:7">
+    <row r="56" spans="2:7">
+      <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="1:25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="1"/>
@@ -3167,35 +3358,10 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-    </row>
     <row r="110" spans="1:25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3218,6 +3384,33 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="1"/>
@@ -3435,64 +3628,26 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
-      <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25">
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
-      <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3537,53 +3692,52 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="5:7">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+    </row>
+    <row r="131" spans="5:7">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="5:7">
+    </row>
+    <row r="132" spans="4:7">
+      <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="5:7">
+    <row r="133" spans="1:7">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="4:7">
-      <c r="D134" s="1"/>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3591,7 +3745,6 @@
     <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="D135" s="3"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3599,6 +3752,7 @@
     <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
+      <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3606,6 +3760,7 @@
     <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
+      <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3613,7 +3768,6 @@
     <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3629,6 +3783,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
+      <c r="D140" s="3"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3636,7 +3791,6 @@
     <row r="141" spans="1:7">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3644,7 +3798,6 @@
     <row r="142" spans="1:7">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3666,21 +3819,21 @@
     <row r="145" spans="1:7">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
+      <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="3"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="B147" s="3"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3835,32 +3988,36 @@
     <row r="169" spans="1:7">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="1"/>
+      <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
-      <c r="D171" s="3"/>
+      <c r="B171" s="1"/>
+      <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1"/>
@@ -3979,25 +4136,21 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+    <row r="186" spans="4:7">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="3"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="4:7">
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="3"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -4010,8 +4163,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="2:7">
-      <c r="B190" s="3"/>
+    <row r="190" spans="4:7">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -4024,7 +4176,8 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="4:7">
+    <row r="192" spans="2:7">
+      <c r="B192" s="3"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -4037,19 +4190,23 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="2:7">
-      <c r="B194" s="3"/>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="B195" s="3"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1"/>
@@ -4216,7 +4373,7 @@
     <row r="214" spans="1:8">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="D214" s="4"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -4225,7 +4382,7 @@
     <row r="215" spans="1:8">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="4"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -4594,7 +4751,7 @@
     <row r="256" spans="1:8">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -4603,7 +4760,7 @@
     <row r="257" spans="1:8">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -4627,28 +4784,24 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:7">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="D260" s="3"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-    </row>
-    <row r="261" spans="1:8">
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
-      <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="D262" s="3"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -4725,26 +4878,27 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="D276" s="3"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -4759,7 +4913,6 @@
     <row r="278" spans="1:7">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
-      <c r="D278" s="3"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -5033,6 +5186,7 @@
     <row r="317" spans="1:7">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
+      <c r="D317" s="3"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -5040,6 +5194,7 @@
     <row r="318" spans="1:7">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
+      <c r="D318" s="3"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -5047,7 +5202,6 @@
     <row r="319" spans="1:7">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
-      <c r="D319" s="3"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -5055,7 +5209,6 @@
     <row r="320" spans="1:7">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
-      <c r="D320" s="3"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -5224,6 +5377,7 @@
     <row r="344" spans="1:7">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
+      <c r="D344" s="3"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -5238,7 +5392,6 @@
     <row r="346" spans="1:7">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
-      <c r="D346" s="3"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -5505,6 +5658,7 @@
     <row r="384" spans="1:7">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
+      <c r="D384" s="3"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -5519,7 +5673,6 @@
     <row r="386" spans="1:7">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
-      <c r="D386" s="3"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -5573,19 +5726,17 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-    </row>
-    <row r="395" spans="1:7">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
+    <row r="395" spans="2:7">
+      <c r="B395" s="5"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" s="5"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
     </row>
     <row r="397" spans="2:7">
       <c r="B397" s="5"/>
@@ -5683,36 +5834,24 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
     </row>
-    <row r="413" spans="2:7">
-      <c r="B413" s="5"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="2:7">
-      <c r="B414" s="5"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:G53">
+  <autoFilter ref="A4:G51">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A360:A364">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A369:A1048576 A1:A7 A9:A110 A112:A359">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A365 A367">
+  <conditionalFormatting sqref="A358:A362">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A366 A368">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A1:A6 A367:A1048576 A110:A357 A25:A108">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A363 A365">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A364 A366">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5737,22 +5876,22 @@
         <v>2001</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C1">
         <v>2.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5760,22 +5899,22 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5783,19 +5922,19 @@
         <v>2003</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -5803,22 +5942,22 @@
         <v>2004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5844,20 +5983,20 @@
         <v>2005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5883,20 +6022,20 @@
         <v>2006</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5922,20 +6061,20 @@
         <v>2007</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5961,20 +6100,20 @@
         <v>2008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -6000,22 +6139,22 @@
         <v>2009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -6041,20 +6180,20 @@
         <v>2010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -6080,20 +6219,20 @@
         <v>2011</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -6119,20 +6258,20 @@
         <v>2012</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6158,22 +6297,22 @@
         <v>2013</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>2.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6199,22 +6338,22 @@
         <v>2014</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1">
         <v>2.5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6240,22 +6379,22 @@
         <v>2015</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1">
         <v>2.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -6281,22 +6420,22 @@
         <v>2016</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -6322,19 +6461,19 @@
         <v>2020</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6360,19 +6499,19 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6398,22 +6537,22 @@
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1">
         <v>2.5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -6439,22 +6578,22 @@
         <v>2031</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>2.5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6480,22 +6619,22 @@
         <v>2032</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
         <v>2.5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6521,22 +6660,22 @@
         <v>2033</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>2.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6562,22 +6701,22 @@
         <v>2041</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>2.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6603,22 +6742,22 @@
         <v>2042</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>2.5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6644,22 +6783,22 @@
         <v>2051</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>2.5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6685,22 +6824,22 @@
         <v>2052</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>2.5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6726,22 +6865,22 @@
         <v>2061</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6767,22 +6906,22 @@
         <v>2062</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>2.5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6808,22 +6947,22 @@
         <v>2071</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>2.5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6849,22 +6988,22 @@
         <v>2072</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6890,22 +7029,22 @@
         <v>2101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>2.5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6931,22 +7070,22 @@
         <v>2102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>2.5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6972,22 +7111,22 @@
         <v>2103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>2.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -7013,22 +7152,22 @@
         <v>2104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C34">
         <v>2.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -7054,22 +7193,22 @@
         <v>2105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>2.5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -7095,22 +7234,22 @@
         <v>2815</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1">
         <v>2.5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -7136,20 +7275,20 @@
         <v>2816</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -7175,22 +7314,22 @@
         <v>2901</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1">
         <v>5.5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -7216,20 +7355,20 @@
         <v>2990</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -7255,22 +7394,22 @@
         <v>2991</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1">
         <v>2.5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -7296,22 +7435,22 @@
         <v>2992</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1">
         <v>2.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>

--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="21795" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,20 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -71,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
   <si>
     <t>模型ID</t>
   </si>
@@ -179,6 +166,36 @@
   </si>
   <si>
     <t>Assets/Datas/Objects/Soliders/human_shield_0.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/Monster/S1/s201.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/Monster/S1/s202.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/Monster/S1/s203.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/Monster/S1/s204.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/Monster/S1/s205.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/BOSS/boss_2204/boss_5404.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/BOSS/boss_2204/boss_5410.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/BOSS/boss_2204/boss_5416.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/BOSS/boss_2204/boss_5422.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Objects/Roles/BOSS/boss_2204/boss_5428.prefab</t>
   </si>
   <si>
     <t>小野猪</t>
@@ -433,12 +450,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -455,6 +472,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -468,6 +513,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,21 +560,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,28 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,13 +642,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,19 +708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,18 +756,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,31 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,19 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,12 +816,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,6 +833,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,21 +880,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,151 +938,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1094,55 +1111,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="注释 2" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="注释 2" xfId="49"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="1">
@@ -1427,7 +1444,7 @@
   <dimension ref="A1:Y412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A25" sqref="A25:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1733,54 +1750,112 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
+      <c r="A25">
+        <v>2117</v>
+      </c>
       <c r="B25" s="1"/>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="5:7">
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" spans="5:7">
+    <row r="27" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A27">
+        <v>2119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="5:7">
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="5:7">
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>5000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="5:7">
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>5001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="5:7">
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>5002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="5:7">
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>5003</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="5:7">
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>5004</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -5844,7 +5919,7 @@
   <conditionalFormatting sqref="A358:A362">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A6 A367:A1048576 A110:A357 A25:A108">
+  <conditionalFormatting sqref="A1:A6 A367:A1048576 A110:A357 A35:A108">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363 A365">
@@ -5876,22 +5951,22 @@
         <v>2001</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C1">
         <v>2.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5899,22 +5974,22 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>2.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5922,19 +5997,19 @@
         <v>2003</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -5942,22 +6017,22 @@
         <v>2004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5983,20 +6058,20 @@
         <v>2005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -6022,20 +6097,20 @@
         <v>2006</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6061,20 +6136,20 @@
         <v>2007</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -6100,20 +6175,20 @@
         <v>2008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -6139,22 +6214,22 @@
         <v>2009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -6180,20 +6255,20 @@
         <v>2010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -6219,20 +6294,20 @@
         <v>2011</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -6258,20 +6333,20 @@
         <v>2012</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6297,22 +6372,22 @@
         <v>2013</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
         <v>2.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6338,22 +6413,22 @@
         <v>2014</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>2.5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6379,22 +6454,22 @@
         <v>2015</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1">
         <v>2.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -6420,22 +6495,22 @@
         <v>2016</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -6461,19 +6536,19 @@
         <v>2020</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6499,19 +6574,19 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6537,22 +6612,22 @@
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
         <v>2.5</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -6578,22 +6653,22 @@
         <v>2031</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1">
         <v>2.5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6619,22 +6694,22 @@
         <v>2032</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1">
         <v>2.5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6660,22 +6735,22 @@
         <v>2033</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>2.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6701,22 +6776,22 @@
         <v>2041</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <v>2.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6742,22 +6817,22 @@
         <v>2042</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>2.5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6783,22 +6858,22 @@
         <v>2051</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>2.5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6824,22 +6899,22 @@
         <v>2052</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>2.5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6865,22 +6940,22 @@
         <v>2061</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>2.5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6906,22 +6981,22 @@
         <v>2062</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>2.5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6947,22 +7022,22 @@
         <v>2071</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>2.5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6988,22 +7063,22 @@
         <v>2072</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>2.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -7029,22 +7104,22 @@
         <v>2101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C31">
         <v>2.5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -7070,22 +7145,22 @@
         <v>2102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>2.5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -7111,22 +7186,22 @@
         <v>2103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <v>2.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -7152,22 +7227,22 @@
         <v>2104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C34">
         <v>2.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -7193,22 +7268,22 @@
         <v>2105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>2.5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -7234,22 +7309,22 @@
         <v>2815</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1">
         <v>2.5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -7275,20 +7350,20 @@
         <v>2816</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -7314,22 +7389,22 @@
         <v>2901</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1">
         <v>5.5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -7355,20 +7430,20 @@
         <v>2990</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -7394,22 +7469,22 @@
         <v>2991</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1">
         <v>2.5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -7435,22 +7510,22 @@
         <v>2992</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1">
         <v>2.5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>

--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:Y412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21795" windowHeight="11970"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -938,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,10 +947,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,7 +959,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:Y412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Developer/配置表/Excel/models.xlsx
+++ b/Developer/配置表/Excel/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="15330" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>Assets/Datas/Objects/Submarines/qianting.prefab</t>
   </si>
   <si>
-    <t>Assets/Datas/Objects/Roles/Test/X_Bot.prefab</t>
+    <t>Assets/Datas/Objects/Roles/Heros/1054chaoxiyongshi/1054chaoxiyongshi_L.prefab</t>
   </si>
   <si>
     <t>Assets/Datas/Objects/Soliders/easteregg_archer_0.prefab</t>
@@ -454,8 +454,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -950,7 +950,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,7 +959,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:Y412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
